--- a/team_JDA_tournament_phase_r4.xlsx
+++ b/team_JDA_tournament_phase_r4.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanm\Documents\Dofus\excel utiles\code\JDA-Stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D94E61-5ED5-44AF-8DEB-40C83280FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2353,8 +2347,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2417,21 +2411,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2469,7 +2455,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2503,7 +2489,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2538,10 +2523,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2714,29 +2698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L85" workbookViewId="0">
-      <selection activeCell="AB95" sqref="AB95"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2795,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2854,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2907,13 +2876,13 @@
         <v>766</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2972,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3031,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3084,13 +3053,13 @@
         <v>766</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3149,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3202,13 +3171,13 @@
         <v>766</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3261,13 +3230,13 @@
         <v>762</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -3320,13 +3289,13 @@
         <v>765</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3379,13 +3348,13 @@
         <v>766</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3503,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3562,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3621,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3680,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +3708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3792,13 +3761,13 @@
         <v>768</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3851,13 +3820,13 @@
         <v>764</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3910,13 +3879,13 @@
         <v>764</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4028,13 +3997,13 @@
         <v>764</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4087,13 +4056,13 @@
         <v>765</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -4146,13 +4115,13 @@
         <v>766</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -4205,13 +4174,13 @@
         <v>767</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4270,7 +4239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4323,13 +4292,13 @@
         <v>764</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -4388,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -4447,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -4500,13 +4469,13 @@
         <v>764</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -4559,13 +4528,13 @@
         <v>764</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -4683,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -4801,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -4860,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4913,13 +4882,13 @@
         <v>764</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -4972,13 +4941,13 @@
         <v>768</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5031,13 +5000,13 @@
         <v>764</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -5090,13 +5059,13 @@
         <v>766</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -5149,13 +5118,13 @@
         <v>764</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -5208,13 +5177,13 @@
         <v>765</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -5273,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -5332,7 +5301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -5391,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -5450,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -5509,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -5568,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -5627,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -5686,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -5745,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -5798,13 +5767,13 @@
         <v>765</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -5857,13 +5826,13 @@
         <v>765</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -5922,7 +5891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -5975,13 +5944,13 @@
         <v>766</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -6034,13 +6003,13 @@
         <v>766</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -6099,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -6152,13 +6121,13 @@
         <v>768</v>
       </c>
       <c r="R58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -6211,13 +6180,13 @@
         <v>764</v>
       </c>
       <c r="R59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -6335,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -6394,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -6453,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -6512,7 +6481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -6571,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -6630,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -6689,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -6742,13 +6711,13 @@
         <v>768</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -6807,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -6860,13 +6829,13 @@
         <v>766</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -6919,13 +6888,13 @@
         <v>766</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -6978,13 +6947,13 @@
         <v>764</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -7037,13 +7006,13 @@
         <v>766</v>
       </c>
       <c r="R73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -7096,13 +7065,13 @@
         <v>764</v>
       </c>
       <c r="R74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -7155,13 +7124,13 @@
         <v>764</v>
       </c>
       <c r="R75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -7214,13 +7183,13 @@
         <v>775</v>
       </c>
       <c r="R76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -7279,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -7338,7 +7307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -7397,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -7450,13 +7419,13 @@
         <v>768</v>
       </c>
       <c r="R80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -7509,13 +7478,13 @@
         <v>766</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -7574,7 +7543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -7627,13 +7596,13 @@
         <v>762</v>
       </c>
       <c r="R83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -7686,13 +7655,13 @@
         <v>768</v>
       </c>
       <c r="R84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -7751,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -7810,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -7863,13 +7832,13 @@
         <v>765</v>
       </c>
       <c r="R87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -7928,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -7981,13 +7950,13 @@
         <v>768</v>
       </c>
       <c r="R89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -8046,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -8099,13 +8068,13 @@
         <v>764</v>
       </c>
       <c r="R91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -8158,13 +8127,13 @@
         <v>766</v>
       </c>
       <c r="R92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
@@ -8217,13 +8186,13 @@
         <v>768</v>
       </c>
       <c r="R93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -8282,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -8335,13 +8304,13 @@
         <v>764</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -8400,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -8453,13 +8422,13 @@
         <v>765</v>
       </c>
       <c r="R97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -8518,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -8571,13 +8540,13 @@
         <v>764</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -8636,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -8695,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -8754,7 +8723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -8807,13 +8776,13 @@
         <v>768</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -8872,7 +8841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -8928,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -8984,13 +8953,13 @@
         <v>763</v>
       </c>
       <c r="R106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -9049,7 +9018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -9102,13 +9071,13 @@
         <v>768</v>
       </c>
       <c r="R108">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -9164,10 +9133,10 @@
         <v>0</v>
       </c>
       <c r="S109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -9220,13 +9189,13 @@
         <v>763</v>
       </c>
       <c r="R110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -9285,7 +9254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -9344,7 +9313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -9403,7 +9372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -9459,10 +9428,10 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -9518,10 +9487,10 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -9580,7 +9549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="1" t="s">
         <v>134</v>
       </c>
@@ -9633,13 +9602,13 @@
         <v>764</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1" t="s">
         <v>135</v>
       </c>
@@ -9692,13 +9661,13 @@
         <v>768</v>
       </c>
       <c r="R118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1" t="s">
         <v>136</v>
       </c>
@@ -9757,7 +9726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="1" t="s">
         <v>137</v>
       </c>
@@ -9810,13 +9779,13 @@
         <v>766</v>
       </c>
       <c r="R120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -9875,7 +9844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -9928,13 +9897,13 @@
         <v>764</v>
       </c>
       <c r="R122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -9993,7 +9962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -10046,13 +10015,13 @@
         <v>764</v>
       </c>
       <c r="R124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -10111,7 +10080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -10170,7 +10139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -10223,13 +10192,13 @@
         <v>765</v>
       </c>
       <c r="R127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1" t="s">
         <v>145</v>
       </c>
@@ -10282,13 +10251,13 @@
         <v>767</v>
       </c>
       <c r="R128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1" t="s">
         <v>146</v>
       </c>
@@ -10347,7 +10316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
@@ -10406,7 +10375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
@@ -10465,7 +10434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
@@ -10518,13 +10487,13 @@
         <v>768</v>
       </c>
       <c r="R132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -10577,13 +10546,13 @@
         <v>763</v>
       </c>
       <c r="R133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
@@ -10636,13 +10605,13 @@
         <v>764</v>
       </c>
       <c r="R134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
@@ -10701,7 +10670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
@@ -10754,13 +10723,13 @@
         <v>764</v>
       </c>
       <c r="R136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
@@ -10813,13 +10782,13 @@
         <v>766</v>
       </c>
       <c r="R137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
@@ -10872,13 +10841,13 @@
         <v>768</v>
       </c>
       <c r="R138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -10937,7 +10906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
@@ -10990,13 +10959,13 @@
         <v>766</v>
       </c>
       <c r="R140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -11049,13 +11018,13 @@
         <v>764</v>
       </c>
       <c r="R141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
@@ -11108,13 +11077,13 @@
         <v>768</v>
       </c>
       <c r="R142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S142">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
@@ -11167,13 +11136,13 @@
         <v>764</v>
       </c>
       <c r="R143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -11232,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
@@ -11285,13 +11254,13 @@
         <v>768</v>
       </c>
       <c r="R145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
@@ -11344,13 +11313,13 @@
         <v>768</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
@@ -11403,13 +11372,13 @@
         <v>765</v>
       </c>
       <c r="R147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
@@ -11462,13 +11431,13 @@
         <v>765</v>
       </c>
       <c r="R148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1" t="s">
         <v>166</v>
       </c>
@@ -11527,7 +11496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="1" t="s">
         <v>167</v>
       </c>
@@ -11586,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="1" t="s">
         <v>168</v>
       </c>
@@ -11645,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="1" t="s">
         <v>169</v>
       </c>
@@ -11698,13 +11667,13 @@
         <v>766</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -11763,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="1" t="s">
         <v>171</v>
       </c>
@@ -11816,13 +11785,13 @@
         <v>768</v>
       </c>
       <c r="R154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -11875,13 +11844,13 @@
         <v>764</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1" t="s">
         <v>173</v>
       </c>
@@ -11940,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="1" t="s">
         <v>174</v>
       </c>
@@ -11999,7 +11968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="1" t="s">
         <v>175</v>
       </c>
@@ -12052,13 +12021,13 @@
         <v>768</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1" t="s">
         <v>176</v>
       </c>
@@ -12117,7 +12086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
@@ -12170,13 +12139,13 @@
         <v>764</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
@@ -12235,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
         <v>179</v>
       </c>
@@ -12288,13 +12257,13 @@
         <v>766</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
         <v>180</v>
       </c>
@@ -12353,7 +12322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
         <v>181</v>
       </c>
@@ -12412,7 +12381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
         <v>182</v>
       </c>
@@ -12465,13 +12434,13 @@
         <v>768</v>
       </c>
       <c r="R165">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
@@ -12524,13 +12493,13 @@
         <v>774</v>
       </c>
       <c r="R166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -12583,13 +12552,13 @@
         <v>768</v>
       </c>
       <c r="R167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
         <v>185</v>
       </c>
@@ -12642,13 +12611,13 @@
         <v>765</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
         <v>186</v>
       </c>
@@ -12707,7 +12676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
         <v>187</v>
       </c>
@@ -12766,7 +12735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
         <v>188</v>
       </c>
@@ -12825,7 +12794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
         <v>189</v>
       </c>
@@ -12881,10 +12850,10 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
         <v>190</v>
       </c>
@@ -12943,7 +12912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="1" t="s">
         <v>191</v>
       </c>
@@ -13002,7 +12971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="1" t="s">
         <v>192</v>
       </c>
@@ -13061,7 +13030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="1" t="s">
         <v>193</v>
       </c>
@@ -13117,10 +13086,10 @@
         <v>0</v>
       </c>
       <c r="S176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="1" t="s">
         <v>194</v>
       </c>
@@ -13179,7 +13148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="1" t="s">
         <v>195</v>
       </c>
@@ -13238,7 +13207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="1" t="s">
         <v>196</v>
       </c>
@@ -13297,7 +13266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="1" t="s">
         <v>197</v>
       </c>
@@ -13356,7 +13325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -13409,13 +13378,13 @@
         <v>763</v>
       </c>
       <c r="R181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="1" t="s">
         <v>199</v>
       </c>
@@ -13474,7 +13443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>
